--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929338.269567367</v>
+        <v>2004867.939232173</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>136.9524318238186</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>179.9269603489844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>206.0978190620145</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>95.07046459880236</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>148.846978237604</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>121.2699779972378</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>103.8744449383597</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.26649993108976</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>189.3427967751814</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>54.46079155833922</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>275.1622158054974</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.34682769251264</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>17.29855725687363</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.64843562452468</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59458547084387</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.8721210574296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>51.96819009633955</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>162.9306416013231</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>33.32815808118234</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>283.8073485474575</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.64843562452468</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>136.9662626914234</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.3137095599317</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>29.36105171566192</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>50.7513604658678</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>18.68432091410194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.64843562453008</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3557,10 +3559,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065128</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>45.12099278364067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642665</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>195.5559609429028</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1734.211456995055</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1348.423204396811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>937.4372996072036</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>519.4734915053905</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>192.2787715413933</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>519.9493689922781</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>519.9493689922781</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,13 +4582,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2491.769918480429</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2491.769918480429</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>2491.769918480429</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.304160219349</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.304160219349</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882119</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X7" t="n">
-        <v>593.7883833041373</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>473.4444960005477</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2655.465757754497</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2655.465757754497</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2655.465757754497</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2655.465757754497</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2324.402870410926</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2324.402870410926</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1950.937112149846</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598707</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="U10" t="n">
-        <v>643.7011644960776</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5020,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,19 +5035,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,13 +5056,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5121,16 +5123,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
         <v>2123.441607278215</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861158</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582089</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>401.51975976348</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>401.51975976348</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>233.3444380833006</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659886</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516356</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5260,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,13 +5293,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5343,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5358,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.685527502827</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.685527502827</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.685527502827</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1440.685527502827</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1186.00103929694</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>896.5838692599799</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619626</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,19 +5527,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>407.6874849156467</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>407.6874849156467</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>407.6874849156467</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>239.5121632354673</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150552</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170379</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.8250614170379</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,13 +5743,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5774,7 +5776,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>730.7156349400716</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C22" t="n">
-        <v>561.7794520121647</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>411.662812599829</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>411.662812599829</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>411.662812599829</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.156678913841</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.156678913841</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y22" t="n">
-        <v>912.3640997703113</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>677.4616523829102</v>
+        <v>467.9934022109805</v>
       </c>
       <c r="C25" t="n">
-        <v>677.4616523829102</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>130.8818976028943</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>677.4616523829102</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>677.4616523829102</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>677.4616523829102</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="X25" t="n">
-        <v>677.4616523829102</v>
+        <v>870.4344461847504</v>
       </c>
       <c r="Y25" t="n">
-        <v>677.4616523829102</v>
+        <v>649.6418670412203</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,58 +6220,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1440.685527502827</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.685527502827</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1440.685527502827</v>
+        <v>1049.571396740913</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.685527502827</v>
+        <v>760.4427579544713</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.00103929694</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="W28" t="n">
-        <v>896.5838692599799</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>505.7582697485844</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753678</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.31998203364</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.182609697673</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.72267491637</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.74515569858</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014294</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.6859735286137</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C31" t="n">
-        <v>665.6859735286137</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D31" t="n">
-        <v>515.5693341162779</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E31" t="n">
-        <v>367.6562405338848</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>220.7662930359744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>934.4781138291679</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655742</v>
+        <v>934.4781138291679</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286137</v>
+        <v>934.4781138291679</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286137</v>
+        <v>706.4885629311506</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286137</v>
+        <v>706.4885629311506</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6691,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>846.912770472595</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3686.32231989966</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>3517.386136971753</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="D37" t="n">
-        <v>3517.386136971753</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>3517.386136971753</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3517.386136971753</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380582</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625193</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636323</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403505</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4606.170084808407</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4316.752914771447</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>4088.76336387343</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>3867.9707847299</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7187,22 +7189,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211724</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011341</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265285</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4741.167820987512</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>4741.167820987512</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>4452.03918220107</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>4197.354693995183</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>3907.937523958222</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861158</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582089</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>699.5494927582089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>551.6363991758158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>404.7464516779054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903896</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557903</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659886</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516356</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1925.814757496978</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524669957</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776732</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5.10066308935933</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>73.53204524669951</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>199.6230805871083</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>124.5670006750235</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>234.8390860669544</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>109.4998586500545</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.31591677926809</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.2373947110934</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>8.041707310106517</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>114.525378367038</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>55.6540117507717</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>115.5856702863538</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>2.430003851119864</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.31591677926809</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>84.58129836696583</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.17985890344593</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>256.8763006829154</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>98.16246790166832</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>129.9311521041104</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.8451328388475</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25369,7 +25371,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>79.43092547709047</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>121.3725756797369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>90.96703739368823</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632326</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876357.1682632326</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
         <v>527889.230645907</v>
@@ -26329,31 +26331,31 @@
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="H4" t="n">
         <v>36432.48351773393</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="K4" t="n">
-        <v>36432.48351773388</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773387</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773388</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766908</v>
+        <v>-301972.4494766904</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378538</v>
+        <v>287995.4297378539</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378539</v>
       </c>
       <c r="E6" t="n">
         <v>-125690.6152974396</v>
@@ -26534,34 +26536,34 @@
         <v>399469.4211794564</v>
       </c>
       <c r="G6" t="n">
+        <v>399469.4211794566</v>
+      </c>
+      <c r="H6" t="n">
+        <v>399469.4211794561</v>
+      </c>
+      <c r="I6" t="n">
         <v>399469.4211794565</v>
       </c>
-      <c r="H6" t="n">
-        <v>399469.4211794563</v>
-      </c>
-      <c r="I6" t="n">
-        <v>399469.4211794564</v>
-      </c>
       <c r="J6" t="n">
-        <v>223046.2019868637</v>
+        <v>223046.2019868634</v>
       </c>
       <c r="K6" t="n">
-        <v>399469.4211794565</v>
+        <v>399469.4211794568</v>
       </c>
       <c r="L6" t="n">
         <v>399469.4211794565</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456193</v>
+        <v>264668.4059456196</v>
       </c>
       <c r="N6" t="n">
+        <v>399469.4211794564</v>
+      </c>
+      <c r="O6" t="n">
         <v>399469.4211794565</v>
       </c>
-      <c r="O6" t="n">
-        <v>399469.4211794564</v>
-      </c>
       <c r="P6" t="n">
-        <v>399469.4211794562</v>
+        <v>399469.4211794566</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,22 +26816,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>14.97888442104266</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>206.3109783070692</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,16 +27590,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>80.1840551799632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>287.6633770646782</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>102.3771892706853</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>25.16398464933141</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>121.8352104506775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.21190264372189</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>180.3883039032876</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,16 +28064,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8210826836385</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>11.36078253109361</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262939</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>492.2066737115375</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>621.6037559756874</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36455,7 +36457,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782243</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>315.5250401398257</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>621.6037559756874</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056088</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>355.8957474878077</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>406.7164955186331</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004867.939232173</v>
+        <v>1997850.924340461</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9524318238186</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>117.5864309727544</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.07046459880236</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>121.2699779972378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>189.3427967751814</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>275.1622158054974</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>197.7630484607895</v>
       </c>
       <c r="V13" t="n">
-        <v>17.29855725687363</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>39.11561436815781</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>61.4722606779437</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.8721210574296</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>38.59744043553486</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.9306416013231</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.32815808118234</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073179</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T28" t="n">
-        <v>136.9662626914234</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>29.36105171566192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>50.7513604658678</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>143.2877162712176</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>18.68432091410194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>88.18589455074786</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>118.4898845065128</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>97.12772045570685</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>195.5559609429028</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2092.477155601806</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>2092.477155601806</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1734.211456995055</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1348.423204396811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>937.4372996072036</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>519.4734915053905</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>192.2787715413933</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2578.37491831847</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2359.740251290533</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2105.978465928625</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1774.915578585054</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>2092.477155601806</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520779</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520779</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520779</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.346402544967</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005477</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>323.3278565882119</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,25 +4828,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
         <v>1978.468598880909</v>
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,16 +4886,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1299.155615547004</v>
       </c>
       <c r="V13" t="n">
-        <v>657.5338128798858</v>
+        <v>1299.155615547004</v>
       </c>
       <c r="W13" t="n">
-        <v>657.5338128798858</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X13" t="n">
-        <v>429.5442619818684</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.7278130442836</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>136.7278130442836</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X16" t="n">
-        <v>357.5203921878137</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.7278130442836</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.8041243279824</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>557.8041243279824</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>407.6874849156467</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>407.6874849156467</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>407.6874849156467</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>239.5121632354673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1260.008946902208</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>970.8803081157661</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>716.1958199098792</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259998</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279824</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.8041243279824</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617345004</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364831</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>467.9934022109805</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>299.0572192830737</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>299.0572192830737</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>299.0572192830737</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>299.0572192830737</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>130.8818976028943</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.423997082768</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>870.4344461847504</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>649.6418670412203</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T28" t="n">
-        <v>1049.571396740913</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>760.4427579544713</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>505.7582697485844</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>505.7582697485844</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>505.7582697485844</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>934.4781138291679</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>934.4781138291679</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>934.4781138291679</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>706.4885629311506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.4885629311506</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.0685056491545</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>579.0685056491545</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4741.167820987512</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>4741.167820987512</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4452.03918220107</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>4197.354693995183</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
-        <v>3907.937523958222</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X40" t="n">
-        <v>3679.947973060205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>195.3259000014039</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>88.47430393778782</v>
       </c>
       <c r="V13" t="n">
-        <v>234.8390860669544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>109.4998586500545</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>157.1123926741511</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>8.041707310106517</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>182.9501206228544</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.6540117507717</v>
+        <v>75.26883114644289</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>115.5856702863538</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>64.30500338171925</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T28" t="n">
-        <v>84.58129836696583</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>256.8763006829154</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>98.16246790166832</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>143.2352820653734</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>129.9311521041104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>130.3987588013469</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>79.43092547709047</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>82.70425972623045</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.96703739368823</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876357.1682632326</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459073</v>
-      </c>
       <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>527889.2306459072</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="H4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766904</v>
+        <v>-301972.4494766908</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378539</v>
+        <v>287995.4297378536</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378539</v>
+        <v>287995.4297378536</v>
       </c>
       <c r="E6" t="n">
-        <v>-125690.6152974396</v>
+        <v>-126665.2065571611</v>
       </c>
       <c r="F6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.829919735</v>
       </c>
       <c r="G6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="H6" t="n">
-        <v>399469.4211794561</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="I6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="J6" t="n">
-        <v>223046.2019868634</v>
+        <v>222071.6107271418</v>
       </c>
       <c r="K6" t="n">
-        <v>399469.4211794568</v>
+        <v>398494.829919735</v>
       </c>
       <c r="L6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456196</v>
+        <v>263693.8146858977</v>
       </c>
       <c r="N6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.829919735</v>
       </c>
       <c r="O6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="P6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26761,22 +26761,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>14.97888442104266</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>56.82928183621709</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.6633770646782</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>65.6082846067429</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25.16398464933141</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>180.3883039032876</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>11.36078253109361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>492.2066737115375</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36457,7 +36457,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1997850.924340461</v>
+        <v>2002790.187189493</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>220.6014752818875</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>117.5864309727544</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>49.84727926079643</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>158.5974412264434</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>108.8074282022286</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.52687838733164</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>399.3976635617693</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.19510348422553</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40048665206214</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>197.7630484607895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>120.195568277628</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.4722606779437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>38.59744043553486</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.8576818890146563</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>161.4046520073179</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1796758467005</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.9594290458865</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W34" t="n">
-        <v>143.2877162712176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.18589455074786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056512</v>
+        <v>126.0924407648174</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.12772045570685</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2578.37491831847</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2359.740251290533</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2105.978465928625</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1774.915578585054</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.14692331494</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.0658214640396</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2587.242597884658</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2368.607930856721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2368.607930856721</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.9563154684962</v>
+        <v>599.9410747082369</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>431.00489178033</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>280.8882523679943</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>132.9751587856011</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>132.9751587856011</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1299.155615547004</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1299.155615547004</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.738445510044</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>781.7488946120263</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.9563154684962</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150552</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150552</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5512,22 +5512,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,22 +5539,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1260.008946902208</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>970.8803081157661</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>716.1958199098792</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>426.7786498729187</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>426.7786498729187</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.7786498729187</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,25 +6010,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6074,16 +6074,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,31 +6402,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1313.886294955175</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>526.805478205432</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>526.805478205432</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>675.7912901164498</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.787631771461</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>981.7980808734433</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765184</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706316</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>241.980548233671</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>644.1080300429513</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>644.1080300429513</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.3259000014039</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231148</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172073</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231148</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>131.0930818113154</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>88.47430393778782</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>131.9420750462</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.1123926741511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>182.9501206228544</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>224.8519735000225</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.26883114644289</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>64.30500338171925</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>14.74113413690279</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0.5341394174910761</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W34" t="n">
-        <v>143.2352820653734</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3987588013469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338591</v>
+        <v>99.6172146242198</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.70425972623045</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="N2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773395</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766908</v>
+        <v>-301972.4494766906</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378537</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378535</v>
       </c>
       <c r="E6" t="n">
-        <v>-126665.2065571611</v>
+        <v>-125788.074423412</v>
       </c>
       <c r="F6" t="n">
-        <v>398494.829919735</v>
+        <v>399371.962053484</v>
       </c>
       <c r="G6" t="n">
-        <v>398494.8299197349</v>
+        <v>399371.9620534843</v>
       </c>
       <c r="H6" t="n">
-        <v>398494.8299197349</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="I6" t="n">
-        <v>398494.8299197347</v>
+        <v>399371.9620534839</v>
       </c>
       <c r="J6" t="n">
-        <v>222071.6107271418</v>
+        <v>222948.7428608914</v>
       </c>
       <c r="K6" t="n">
-        <v>398494.829919735</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="L6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="M6" t="n">
-        <v>263693.8146858977</v>
+        <v>264570.9468196469</v>
       </c>
       <c r="N6" t="n">
-        <v>398494.829919735</v>
+        <v>399371.9620534844</v>
       </c>
       <c r="O6" t="n">
-        <v>398494.8299197349</v>
+        <v>399371.9620534842</v>
       </c>
       <c r="P6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>193.1826947389075</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>56.82928183621709</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>117.4625229982545</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>248.2786045152681</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6082846067429</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.7829238717193</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.478382179942116</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523655</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700197</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110541</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110541</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700197</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
